--- a/res/stop_words.xlsx
+++ b/res/stop_words.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>ada</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>yuk</t>
+  </si>
+  <si>
+    <t>yg</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,9 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
